--- a/Version 3.0/sheets/format.xlsx
+++ b/Version 3.0/sheets/format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Important Files\Final Project\Version 3.0\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEDB4A3-5AD3-4710-A56D-BC22D5781ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D433B7-FA6B-4025-8561-AD67796F349D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" xr2:uid="{1EEF0750-3F9E-4F19-8052-8DC30A24F425}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="4" xr2:uid="{1EEF0750-3F9E-4F19-8052-8DC30A24F425}"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC4050-7AFC-4897-A80A-51F80767416D}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,11 +441,11 @@
     <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +464,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -477,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F7B39D-A751-4688-92EC-DD4F6F357205}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,11 +490,11 @@
     <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +513,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -526,10 +524,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88578300-2837-416E-B20E-C9FC06DDDAB0}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,11 +538,11 @@
     <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,8 +561,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -575,10 +572,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EF73E9-BE01-497B-8CBB-DBDD5887B183}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,11 +586,11 @@
     <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +609,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -624,10 +620,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC11B99F-511C-4906-A3A8-6A298C5747AB}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,11 +634,11 @@
     <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,8 +657,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
